--- a/data/beds-vents-1113.xlsx
+++ b/data/beds-vents-1113.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
   <si>
     <t>DATE</t>
   </si>
@@ -1931,6 +1931,9 @@
   </si>
   <si>
     <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O625"/>
+  <dimension ref="A1:O626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30841,6 +30844,53 @@
         <v>74.25</v>
       </c>
     </row>
+    <row r="626" spans="1:15">
+      <c r="A626" t="s">
+        <v>639</v>
+      </c>
+      <c r="B626">
+        <v>2289</v>
+      </c>
+      <c r="C626">
+        <v>346</v>
+      </c>
+      <c r="D626">
+        <v>1315</v>
+      </c>
+      <c r="E626">
+        <v>628</v>
+      </c>
+      <c r="F626">
+        <v>2775</v>
+      </c>
+      <c r="G626">
+        <v>152</v>
+      </c>
+      <c r="H626">
+        <v>565</v>
+      </c>
+      <c r="I626">
+        <v>2058</v>
+      </c>
+      <c r="J626">
+        <v>15.12</v>
+      </c>
+      <c r="K626">
+        <v>57.45</v>
+      </c>
+      <c r="L626">
+        <v>27.44</v>
+      </c>
+      <c r="M626">
+        <v>5.48</v>
+      </c>
+      <c r="N626">
+        <v>20.36</v>
+      </c>
+      <c r="O626">
+        <v>74.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
